--- a/data/CS1_2/Market Data/CS1_market_data_base.xlsx
+++ b/data/CS1_2/Market Data/CS1_market_data_base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E06DCF2-67D9-4242-90B2-DE368A0F3DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9BBEA4-032D-4252-80B8-488D61667732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,10 @@
     <sheet name="Secondary Reserve, Winter" sheetId="3" r:id="rId3"/>
     <sheet name="Tertiary Reserve Up, Winter" sheetId="4" r:id="rId4"/>
     <sheet name="Tertiary Reserve Down, Winter" sheetId="5" r:id="rId5"/>
-    <sheet name="Flexibility, Winter" sheetId="11" r:id="rId6"/>
-    <sheet name="Energy, Summer" sheetId="6" r:id="rId7"/>
-    <sheet name="Secondary Reserve, Summer" sheetId="7" r:id="rId8"/>
-    <sheet name="Tertiary Reserve Up, Summer" sheetId="8" r:id="rId9"/>
-    <sheet name="Tertiary Reserve Down, Summer" sheetId="9" r:id="rId10"/>
-    <sheet name="Flexibility, Summer" sheetId="12" r:id="rId11"/>
+    <sheet name="Energy, Summer" sheetId="6" r:id="rId6"/>
+    <sheet name="Secondary Reserve, Summer" sheetId="7" r:id="rId7"/>
+    <sheet name="Tertiary Reserve Up, Summer" sheetId="8" r:id="rId8"/>
+    <sheet name="Tertiary Reserve Down, Summer" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -480,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Scenario</t>
   </si>
@@ -501,9 +499,6 @@
   </si>
   <si>
     <t>Downward Tertiary Reserve</t>
-  </si>
-  <si>
-    <t>Flexibility</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +999,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1041,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1049,705 +1044,11 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2593E2F5-41B7-446A-8A1D-5F81A289B505}">
-  <dimension ref="A1:Y6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="C2" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="D2" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="E2" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="G2" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="H2" s="4">
-        <f ca="1">AVERAGE(H4:H6)</f>
-        <v>24.515000000000001</v>
-      </c>
-      <c r="I2" s="4">
-        <f>AVERAGE(I5:I5,I4:I6)</f>
-        <v>24.7575</v>
-      </c>
-      <c r="J2" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="K2" s="2">
-        <v>20.36</v>
-      </c>
-      <c r="L2" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>60</v>
-      </c>
-      <c r="N2" s="2">
-        <v>29.01</v>
-      </c>
-      <c r="O2" s="2">
-        <v>29.02</v>
-      </c>
-      <c r="P2" s="2">
-        <v>29.02</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="R2" s="4">
-        <f>AVERAGE(R5:R5,R4:R6)</f>
-        <v>50.4</v>
-      </c>
-      <c r="S2" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="T2" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="U2" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="V2" s="2">
-        <v>30</v>
-      </c>
-      <c r="W2" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="X2" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>22.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2">
-        <v>27.74</v>
-      </c>
-      <c r="F3" s="4">
-        <f>AVERAGE(F5,F2,F4)</f>
-        <v>33.606666666666662</v>
-      </c>
-      <c r="G3" s="4">
-        <f ca="1">AVERAGE(G2:G5)</f>
-        <v>30.71</v>
-      </c>
-      <c r="H3" s="4">
-        <f ca="1">AVERAGE(H4:H6)</f>
-        <v>24.515000000000001</v>
-      </c>
-      <c r="I3" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="J3" s="4">
-        <f ca="1">AVERAGE(J5,J2:J6)</f>
-        <v>24.7575</v>
-      </c>
-      <c r="K3" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="L3" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="N3" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="O3" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="P3" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="R3" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="S3" s="2">
-        <v>29.98</v>
-      </c>
-      <c r="T3" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="U3" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="V3" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="W3" s="2">
-        <v>28</v>
-      </c>
-      <c r="X3" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43.2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43.2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="G4" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="I4" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="J4" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="K4" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="L4" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="N4" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="O4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="P4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="R4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="S4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="T4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="U4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="V4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="W4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="X4" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>15.6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43.2</v>
-      </c>
-      <c r="D5" s="4">
-        <f ca="1">AVERAGE(D3:D6)</f>
-        <v>37.466666666666669</v>
-      </c>
-      <c r="E5" s="4">
-        <f ca="1">AVERAGE(E3:E5)</f>
-        <v>33.57</v>
-      </c>
-      <c r="F5" s="2">
-        <v>39.4</v>
-      </c>
-      <c r="G5" s="4">
-        <f ca="1">AVERAGE(G2:G5)</f>
-        <v>30.71</v>
-      </c>
-      <c r="H5" s="4">
-        <f ca="1">AVERAGE(H4:H6)</f>
-        <v>24.515000000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="J5" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="K5" s="4">
-        <f ca="1">AVERAGE(K3:K6)</f>
-        <v>24.89</v>
-      </c>
-      <c r="L5" s="2">
-        <v>26</v>
-      </c>
-      <c r="M5" s="4">
-        <f ca="1">AVERAGE(M3:M6)</f>
-        <v>35.503333333333337</v>
-      </c>
-      <c r="N5" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="O5" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="P5" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="R5" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="S5" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="T5" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="U5" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="V5" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="W5" s="2">
-        <v>27.98</v>
-      </c>
-      <c r="X5" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>18.71</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43.2</v>
-      </c>
-      <c r="E6" s="4">
-        <f ca="1">AVERAGE(E3:E5)</f>
-        <v>33.57</v>
-      </c>
-      <c r="F6" s="4">
-        <f>AVERAGE(F5,F2,F4)</f>
-        <v>33.606666666666662</v>
-      </c>
-      <c r="G6" s="4">
-        <f ca="1">AVERAGE(G2:G5)</f>
-        <v>30.71</v>
-      </c>
-      <c r="H6" s="2">
-        <v>21.05</v>
-      </c>
-      <c r="I6" s="2">
-        <v>21.05</v>
-      </c>
-      <c r="J6" s="2">
-        <v>21.05</v>
-      </c>
-      <c r="K6" s="2">
-        <v>18.71</v>
-      </c>
-      <c r="L6" s="2">
-        <v>18.71</v>
-      </c>
-      <c r="M6" s="2">
-        <v>26.03</v>
-      </c>
-      <c r="N6" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="O6" s="4">
-        <f>AVERAGE(O5:O5)</f>
-        <v>50.4</v>
-      </c>
-      <c r="P6" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>AVERAGE(Q5:Q5)</f>
-        <v>50.4</v>
-      </c>
-      <c r="R6" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="S6" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="T6" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="U6" s="2">
-        <v>26.03</v>
-      </c>
-      <c r="V6" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="W6" s="2">
-        <v>50.4</v>
-      </c>
-      <c r="X6" s="2">
-        <v>26.03</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>50.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB275C3D-DCB9-485A-9323-2E36D571791F}">
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'Secondary Reserve, Summer'!B2</f>
-        <v>6.52</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'Secondary Reserve, Summer'!C2</f>
-        <v>10.56</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'Secondary Reserve, Summer'!D2</f>
-        <v>5.92</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'Secondary Reserve, Summer'!E2</f>
-        <v>6.15</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'Secondary Reserve, Summer'!F2</f>
-        <v>6.79</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'Secondary Reserve, Summer'!G2</f>
-        <v>6.65</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'Secondary Reserve, Summer'!H2</f>
-        <v>10</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'Secondary Reserve, Summer'!I2</f>
-        <v>10.19</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'Secondary Reserve, Summer'!J2</f>
-        <v>9.76</v>
-      </c>
-      <c r="K2" s="2">
-        <f>'Secondary Reserve, Summer'!K2</f>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="L2" s="2">
-        <f>'Secondary Reserve, Summer'!L2</f>
-        <v>8.66</v>
-      </c>
-      <c r="M2" s="2">
-        <f>'Secondary Reserve, Summer'!M2</f>
-        <v>10</v>
-      </c>
-      <c r="N2" s="2">
-        <f>'Secondary Reserve, Summer'!N2</f>
-        <v>7.8</v>
-      </c>
-      <c r="O2" s="2">
-        <f>'Secondary Reserve, Summer'!O2</f>
-        <v>5.82</v>
-      </c>
-      <c r="P2" s="2">
-        <f>'Secondary Reserve, Summer'!P2</f>
-        <v>6.56</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>'Secondary Reserve, Summer'!Q2</f>
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="R2" s="2">
-        <f>'Secondary Reserve, Summer'!R2</f>
-        <v>7.63</v>
-      </c>
-      <c r="S2" s="2">
-        <f>'Secondary Reserve, Summer'!S2</f>
-        <v>8.42</v>
-      </c>
-      <c r="T2" s="2">
-        <f>'Secondary Reserve, Summer'!T2</f>
-        <v>4.66</v>
-      </c>
-      <c r="U2" s="2">
-        <f>'Secondary Reserve, Summer'!U2</f>
-        <v>4.32</v>
-      </c>
-      <c r="V2" s="2">
-        <f>'Secondary Reserve, Summer'!V2</f>
-        <v>2.81</v>
-      </c>
-      <c r="W2" s="2">
-        <f>'Secondary Reserve, Summer'!W2</f>
-        <v>2.81</v>
-      </c>
-      <c r="X2" s="2">
-        <f>'Secondary Reserve, Summer'!X2</f>
-        <v>3.33</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>'Secondary Reserve, Summer'!Y2</f>
-        <v>8.9700000000000006</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1759,7 +1060,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:Y6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2044,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:Y6"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,27 +2182,21 @@
         <v>46</v>
       </c>
       <c r="S2" s="4">
-        <f>AVERAGE(S5,S3,S6,S4)</f>
         <v>51.555</v>
       </c>
       <c r="T2" s="4">
-        <f>AVERAGE(T5,T3,T6,T4)</f>
         <v>51.3</v>
       </c>
       <c r="U2" s="4">
-        <f>AVERAGE(U5,U3,U4)</f>
         <v>53.07</v>
       </c>
       <c r="V2" s="4">
-        <f>AVERAGE(V5,V3,V4)</f>
         <v>53.07</v>
       </c>
       <c r="W2" s="4">
-        <f>AVERAGE(W5,W3,W4)</f>
         <v>53.07</v>
       </c>
       <c r="X2" s="4">
-        <f>AVERAGE(X5,X3,X4)</f>
         <v>54.376666666666665</v>
       </c>
       <c r="Y2" s="2">
@@ -2990,7 +2285,6 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <f>AVERAGE(B5:B5)</f>
         <v>62.57</v>
       </c>
       <c r="C4" s="2">
@@ -3006,7 +2300,6 @@
         <v>44</v>
       </c>
       <c r="G4" s="4">
-        <f>AVERAGE(G5:G5,G6)</f>
         <v>43.97</v>
       </c>
       <c r="H4" s="2">
@@ -3029,7 +2322,6 @@
         <v>46</v>
       </c>
       <c r="O4" s="4">
-        <f>AVERAGE(O5:O5)</f>
         <v>62.57</v>
       </c>
       <c r="P4" s="2">
@@ -3145,7 +2437,6 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <f>AVERAGE(B5:B5)</f>
         <v>62.57</v>
       </c>
       <c r="C6" s="2">
@@ -3185,7 +2476,6 @@
         <v>46</v>
       </c>
       <c r="O6" s="4">
-        <f>AVERAGE(O5:O5)</f>
         <v>62.57</v>
       </c>
       <c r="P6" s="2">
@@ -3204,23 +2494,18 @@
         <v>46</v>
       </c>
       <c r="U6" s="4">
-        <f>AVERAGE(U5,U3,U4)</f>
         <v>53.07</v>
       </c>
       <c r="V6" s="4">
-        <f>AVERAGE(V5,V3,V4)</f>
         <v>53.07</v>
       </c>
       <c r="W6" s="4">
-        <f>AVERAGE(W5,W3,W4)</f>
         <v>53.07</v>
       </c>
       <c r="X6" s="4">
-        <f>AVERAGE(X5,X3,X4)</f>
         <v>54.376666666666665</v>
       </c>
       <c r="Y6" s="4">
-        <f>AVERAGE(Y5:Y5)</f>
         <v>46.97</v>
       </c>
     </row>
@@ -3235,7 +2520,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:Y6"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,7 +2640,6 @@
         <v>55.2</v>
       </c>
       <c r="M2" s="4">
-        <f>AVERAGE(M5:M5,M4:M6)</f>
         <v>42.405000000000001</v>
       </c>
       <c r="N2" s="2">
@@ -3400,26 +2684,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <f ca="1">AVERAGE(B5,B2:B6)</f>
         <v>16.612500000000001</v>
       </c>
       <c r="C3" s="2">
         <v>31</v>
       </c>
       <c r="D3" s="4">
-        <f ca="1">AVERAGE(D5,D2:D6)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="E3" s="4">
-        <f ca="1">AVERAGE(E5,E2:E6)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="F3" s="4">
-        <f ca="1">AVERAGE(F5,F2:F6)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="G3" s="4">
-        <f ca="1">AVERAGE(G5,G2:G6)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="H3" s="2">
@@ -3435,7 +2714,6 @@
         <v>24.01</v>
       </c>
       <c r="L3" s="4">
-        <f ca="1">AVERAGE(L5,L2:L6)</f>
         <v>34.86</v>
       </c>
       <c r="M3" s="2">
@@ -3448,11 +2726,9 @@
         <v>53</v>
       </c>
       <c r="P3" s="4">
-        <f ca="1">AVERAGE(P2:P6)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q3" s="4">
-        <f ca="1">AVERAGE(Q2:Q6)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R3" s="2">
@@ -3465,7 +2741,6 @@
         <v>53</v>
       </c>
       <c r="U3" s="4">
-        <f ca="1">AVERAGE(U5,U2:U6)</f>
         <v>34.107500000000002</v>
       </c>
       <c r="V3" s="2">
@@ -3552,7 +2827,6 @@
         <v>29.61</v>
       </c>
       <c r="X4" s="4">
-        <f>AVERAGE(X5:X5,X6)</f>
         <v>27.505000000000003</v>
       </c>
       <c r="Y4" s="2">
@@ -3600,23 +2874,18 @@
         <v>55.2</v>
       </c>
       <c r="N5" s="4">
-        <f ca="1">AVERAGE(N3:N6)</f>
         <v>30.406666666666666</v>
       </c>
       <c r="O5" s="4">
-        <f ca="1">AVERAGE(O3:O6)</f>
         <v>34.58</v>
       </c>
       <c r="P5" s="4">
-        <f ca="1">AVERAGE(P2:P6)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q5" s="4">
-        <f ca="1">AVERAGE(Q2:Q6)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R5" s="4">
-        <f ca="1">AVERAGE(R3:R6)</f>
         <v>26.493333333333336</v>
       </c>
       <c r="S5" s="2">
@@ -3629,7 +2898,6 @@
         <v>22.01</v>
       </c>
       <c r="V5" s="4">
-        <f ca="1">AVERAGE(V3:V6)</f>
         <v>30.41</v>
       </c>
       <c r="W5" s="2">
@@ -3726,204 +2994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEF7587-AA65-4F33-8FA0-AB47A59BFC1E}">
-  <dimension ref="A1:Y2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'Secondary Reserve, Winter'!B2</f>
-        <v>18.309999999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <f>'Secondary Reserve, Winter'!C2</f>
-        <v>18.79</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'Secondary Reserve, Winter'!D2</f>
-        <v>22.38</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'Secondary Reserve, Winter'!E2</f>
-        <v>24.35</v>
-      </c>
-      <c r="F2" s="2">
-        <f>'Secondary Reserve, Winter'!F2</f>
-        <v>25.01</v>
-      </c>
-      <c r="G2" s="2">
-        <f>'Secondary Reserve, Winter'!G2</f>
-        <v>20.48</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'Secondary Reserve, Winter'!H2</f>
-        <v>22.13</v>
-      </c>
-      <c r="I2" s="2">
-        <f>'Secondary Reserve, Winter'!I2</f>
-        <v>12.36</v>
-      </c>
-      <c r="J2" s="2">
-        <f>'Secondary Reserve, Winter'!J2</f>
-        <v>5.59</v>
-      </c>
-      <c r="K2" s="2">
-        <f>'Secondary Reserve, Winter'!K2</f>
-        <v>4.01</v>
-      </c>
-      <c r="L2" s="2">
-        <f>'Secondary Reserve, Winter'!L2</f>
-        <v>3.49</v>
-      </c>
-      <c r="M2" s="2">
-        <f>'Secondary Reserve, Winter'!M2</f>
-        <v>5.14</v>
-      </c>
-      <c r="N2" s="2">
-        <f>'Secondary Reserve, Winter'!N2</f>
-        <v>3.99</v>
-      </c>
-      <c r="O2" s="2">
-        <f>'Secondary Reserve, Winter'!O2</f>
-        <v>4.29</v>
-      </c>
-      <c r="P2" s="2">
-        <f>'Secondary Reserve, Winter'!P2</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>'Secondary Reserve, Winter'!Q2</f>
-        <v>4.49</v>
-      </c>
-      <c r="R2" s="2">
-        <f>'Secondary Reserve, Winter'!R2</f>
-        <v>3.99</v>
-      </c>
-      <c r="S2" s="2">
-        <f>'Secondary Reserve, Winter'!S2</f>
-        <v>3.99</v>
-      </c>
-      <c r="T2" s="2">
-        <f>'Secondary Reserve, Winter'!T2</f>
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="U2" s="2">
-        <f>'Secondary Reserve, Winter'!U2</f>
-        <v>5.39</v>
-      </c>
-      <c r="V2" s="2">
-        <f>'Secondary Reserve, Winter'!V2</f>
-        <v>3.99</v>
-      </c>
-      <c r="W2" s="2">
-        <f>'Secondary Reserve, Winter'!W2</f>
-        <v>3.99</v>
-      </c>
-      <c r="X2" s="2">
-        <f>'Secondary Reserve, Winter'!X2</f>
-        <v>5.99</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>'Secondary Reserve, Winter'!Y2</f>
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8148E-B092-4250-B42C-B4D8265B477C}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4423,7 +3498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514FB8F9-B431-4FC3-A01F-C31ABBD1F26D}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
@@ -4928,12 +4003,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A463E26D-6A8A-4B66-9A29-8928FA1FD067}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5320,7 +4395,6 @@
         <v>47.22</v>
       </c>
       <c r="Y5" s="4">
-        <f ca="1">AVERAGE(Y3:Y6)</f>
         <v>47.043333333333329</v>
       </c>
     </row>
@@ -5347,7 +4421,6 @@
         <v>37.4</v>
       </c>
       <c r="H6" s="4">
-        <f>AVERAGE(H5:H5)</f>
         <v>47.22</v>
       </c>
       <c r="I6" s="2">
@@ -5360,7 +4433,6 @@
         <v>37.4</v>
       </c>
       <c r="L6" s="4">
-        <f>AVERAGE(L5:L5)</f>
         <v>36</v>
       </c>
       <c r="M6" s="2">
@@ -5401,6 +4473,484 @@
       </c>
       <c r="Y6" s="2">
         <v>46.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2593E2F5-41B7-446A-8A1D-5F81A289B505}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="C2" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="E2" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="G2" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="H2" s="4">
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I2" s="4">
+        <v>24.7575</v>
+      </c>
+      <c r="J2" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20.36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29.01</v>
+      </c>
+      <c r="O2" s="2">
+        <v>29.02</v>
+      </c>
+      <c r="P2" s="2">
+        <v>29.02</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="R2" s="4">
+        <v>50.4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="V2" s="2">
+        <v>30</v>
+      </c>
+      <c r="W2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="X2" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2">
+        <v>27.74</v>
+      </c>
+      <c r="F3" s="4">
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30.71</v>
+      </c>
+      <c r="H3" s="4">
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="J3" s="4">
+        <v>24.7575</v>
+      </c>
+      <c r="K3" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="L3" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S3" s="2">
+        <v>29.98</v>
+      </c>
+      <c r="T3" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="U3" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="V3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="W3" s="2">
+        <v>28</v>
+      </c>
+      <c r="X3" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="I4" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="J4" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="K4" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="L4" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="N4" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="R4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="U4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="V4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="W4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="X4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>37.466666666666669</v>
+      </c>
+      <c r="E5" s="4">
+        <v>33.57</v>
+      </c>
+      <c r="F5" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>30.71</v>
+      </c>
+      <c r="H5" s="4">
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="J5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="K5" s="4">
+        <v>24.89</v>
+      </c>
+      <c r="L5" s="2">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4">
+        <v>35.503333333333337</v>
+      </c>
+      <c r="N5" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="R5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="U5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="V5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="W5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="X5" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>18.71</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>33.57</v>
+      </c>
+      <c r="F6" s="4">
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G6" s="4">
+        <v>30.71</v>
+      </c>
+      <c r="H6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="I6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="J6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="K6" s="2">
+        <v>18.71</v>
+      </c>
+      <c r="L6" s="2">
+        <v>18.71</v>
+      </c>
+      <c r="M6" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="N6" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="O6" s="4">
+        <v>50.4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>50.4</v>
+      </c>
+      <c r="R6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="V6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="X6" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>50.4</v>
       </c>
     </row>
   </sheetData>
